--- a/theme/Personel.xlsx
+++ b/theme/Personel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp 5.6\htdocs\garjas\theme\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\090\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF143A3-90DA-4B7E-9A69-1F3CBA6990B5}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A253DFA-A0DB-4E17-8181-DE8F70216E13}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4320" tabRatio="208" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Nama</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>Matra</t>
+  </si>
+  <si>
+    <t>Kotama</t>
   </si>
 </sst>
 </file>
@@ -428,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -442,12 +445,12 @@
     <col min="5" max="5" width="44.28515625" customWidth="1"/>
     <col min="6" max="6" width="34.7109375" style="2" customWidth="1"/>
     <col min="7" max="7" width="22.5703125" customWidth="1"/>
-    <col min="8" max="8" width="27.7109375" customWidth="1"/>
-    <col min="9" max="9" width="27.85546875" customWidth="1"/>
-    <col min="10" max="1016" width="11.5703125"/>
+    <col min="8" max="9" width="27.7109375" customWidth="1"/>
+    <col min="10" max="10" width="27.85546875" customWidth="1"/>
+    <col min="11" max="1017" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -473,6 +476,9 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
